--- a/biology/Médecine/Fatigue_pandémique/Fatigue_pandémique.xlsx
+++ b/biology/Médecine/Fatigue_pandémique/Fatigue_pandémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fatigue_pand%C3%A9mique</t>
+          <t>Fatigue_pandémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fatigue pandémique[1] est un syndrome psychiatrique dû à une pandémie. Elle est causée par la peur de la maladie causant la pandémie, mais également par les contraintes sociales liées aux mesures de lutte contre cette même maladie (perte de lien social, peur du chômage ou des conséquences économiques…).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fatigue pandémique est un syndrome psychiatrique dû à une pandémie. Elle est causée par la peur de la maladie causant la pandémie, mais également par les contraintes sociales liées aux mesures de lutte contre cette même maladie (perte de lien social, peur du chômage ou des conséquences économiques…).
 Le syndrome est en particulier présent chez les personnes les plus jeunes et les plus âgées, qui peuvent avoir davantage de difficulté à se projeter dans l'avenir que celles d'âge intermédiaire. Les symptômes sont de la fatigue, des épisodes dépressifs, difficultés pour dormir ou se concentrer. Une conséquence de la fatigue pandémique est la difficulté pour les gouvernements à faire accepter à leurs citoyens ces mesures de lutte, comme le port du masque ou le confinement.
 </t>
         </is>
